--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.1</t>
+    <t>2.9.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.0</t>
+    <t>2.9.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.1</t>
+    <t>2.9.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -68,13 +68,13 @@
     <t>Publisher</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S</t>
   </si>
   <si>
     <t>Contact</t>
   </si>
   <si>
-    <t>Sundhedsvæsnets Kvalistetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
+    <t>Sundhedsvæsenets Kvalitetsinstitut with Trifork Digital Health A/S (https://trifork.com, rbk@trifork.com)</t>
   </si>
   <si>
     <t>Jurisdiction</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.3</t>
+    <t>2.9.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.4</t>
+    <t>2.9.8</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.9.8</t>
+    <t>2.11.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.1</t>
+    <t>2.11.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.2</t>
+    <t>2.11.3</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.3</t>
+    <t>2.11.4</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.4</t>
+    <t>2.11.5</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.5</t>
+    <t>2.11.6</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.11.6</t>
+    <t>2.12.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.0</t>
+    <t>2.12.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.1</t>
+    <t>2.12.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.12.2</t>
+    <t>2.13.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.13.0</t>
+    <t>2.14.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -143,7 +143,7 @@
     <t>noak_b</t>
   </si>
   <si>
-    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering umiddelbart postoperativt</t>
+    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering fra første postoperative dag</t>
   </si>
   <si>
     <t>https://kip.rkkp.dk/fhir/CodeSystem/Medicine</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.0</t>
+    <t>2.14.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.1</t>
+    <t>2.14.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-19T00:00:00+02:00</t>
+    <t>2025-12-01T00:00:00+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -143,7 +143,7 @@
     <t>noak_b</t>
   </si>
   <si>
-    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering fra første postoperative dag</t>
+    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering umildbart postoperativt</t>
   </si>
   <si>
     <t>https://kip.rkkp.dk/fhir/CodeSystem/Medicine</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="49">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.14.2</t>
+    <t>2.15.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -143,7 +143,13 @@
     <t>noak_b</t>
   </si>
   <si>
-    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering umildbart postoperativt</t>
+    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering umiddelbart (på operationsdagen)</t>
+  </si>
+  <si>
+    <t>noak_c</t>
+  </si>
+  <si>
+    <t>Patienten er i varig NOAK-behandling og fortsætter med vanligt præparat i fuld dosering fra første postoperative dag</t>
   </si>
   <si>
     <t>https://kip.rkkp.dk/fhir/CodeSystem/Medicine</t>
@@ -487,7 +493,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -531,18 +537,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>21</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="B6" t="s" s="2">
-        <v>43</v>
+      <c r="B7" t="s" s="2">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -572,10 +586,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -591,7 +605,7 @@
         <v>35</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.15.0</t>
+    <t>2.16.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
+++ b/fhir/ValueSet-VarighedPostOPTrombDKR.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.16.0</t>
+    <t>2.17.1</t>
   </si>
   <si>
     <t>Name</t>
